--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>序号</t>
   </si>
@@ -36,25 +36,64 @@
     <t>余光a</t>
   </si>
   <si>
-    <t>yg</t>
+    <t>YG</t>
+  </si>
+  <si>
+    <t>kq</t>
   </si>
   <si>
     <t>里子b</t>
   </si>
   <si>
+    <t>lz</t>
+  </si>
+  <si>
+    <t>zz</t>
+  </si>
+  <si>
     <t>牛奶c</t>
   </si>
   <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
     <t>糖果</t>
   </si>
   <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
     <t>盒子</t>
   </si>
   <si>
+    <t>HZ</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
     <t>杯具</t>
   </si>
   <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>ZO</t>
+  </si>
+  <si>
     <t>张三g</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>lol</t>
   </si>
 </sst>
 </file>
@@ -77,7 +116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,6 +124,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,22 +175,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +227,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -180,43 +235,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -229,37 +268,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,145 +418,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,11 +462,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,69 +559,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1064,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1066,8 +1105,8 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1087,7 +1126,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -1104,7 +1149,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -1121,7 +1172,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -1138,7 +1195,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -1155,7 +1218,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1172,7 +1241,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
       </c>
       <c r="F8">
         <v>1100</v>
